--- a/techniqo/data_new_ticker/VSTIND.xlsx
+++ b/techniqo/data_new_ticker/VSTIND.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1403"/>
+  <dimension ref="A1:G1405"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -49491,6 +49491,56 @@
         <v>18519</v>
       </c>
     </row>
+    <row r="1404">
+      <c r="A1404" t="inlineStr">
+        <is>
+          <t>15-09-2020</t>
+        </is>
+      </c>
+      <c r="B1404" t="n">
+        <v>3590</v>
+      </c>
+      <c r="C1404" t="n">
+        <v>3590</v>
+      </c>
+      <c r="D1404" t="n">
+        <v>3506</v>
+      </c>
+      <c r="E1404" t="n">
+        <v>3553.65</v>
+      </c>
+      <c r="F1404" t="n">
+        <v>5094</v>
+      </c>
+      <c r="G1404" t="n">
+        <v>18520</v>
+      </c>
+    </row>
+    <row r="1405">
+      <c r="A1405" t="inlineStr">
+        <is>
+          <t>16-09-2020</t>
+        </is>
+      </c>
+      <c r="B1405" t="n">
+        <v>3569.95</v>
+      </c>
+      <c r="C1405" t="n">
+        <v>3577.15</v>
+      </c>
+      <c r="D1405" t="n">
+        <v>3555.55</v>
+      </c>
+      <c r="E1405" t="n">
+        <v>3561.7</v>
+      </c>
+      <c r="F1405" t="n">
+        <v>7318</v>
+      </c>
+      <c r="G1405" t="n">
+        <v>18521</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/techniqo/data_new_ticker/VSTIND.xlsx
+++ b/techniqo/data_new_ticker/VSTIND.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1405"/>
+  <dimension ref="A1:G1407"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -49541,6 +49541,56 @@
         <v>18521</v>
       </c>
     </row>
+    <row r="1406">
+      <c r="A1406" t="inlineStr">
+        <is>
+          <t>17-09-2020</t>
+        </is>
+      </c>
+      <c r="B1406" t="n">
+        <v>3560</v>
+      </c>
+      <c r="C1406" t="n">
+        <v>3680</v>
+      </c>
+      <c r="D1406" t="n">
+        <v>3515</v>
+      </c>
+      <c r="E1406" t="n">
+        <v>3624.35</v>
+      </c>
+      <c r="F1406" t="n">
+        <v>14657</v>
+      </c>
+      <c r="G1406" t="n">
+        <v>18522</v>
+      </c>
+    </row>
+    <row r="1407">
+      <c r="A1407" t="inlineStr">
+        <is>
+          <t>18-09-2020</t>
+        </is>
+      </c>
+      <c r="B1407" t="n">
+        <v>3649</v>
+      </c>
+      <c r="C1407" t="n">
+        <v>3720</v>
+      </c>
+      <c r="D1407" t="n">
+        <v>3585</v>
+      </c>
+      <c r="E1407" t="n">
+        <v>3684.75</v>
+      </c>
+      <c r="F1407" t="n">
+        <v>8950</v>
+      </c>
+      <c r="G1407" t="n">
+        <v>18523</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
